--- a/loaded_influencer_data/soraiadias98.ugc/soraiadias98.ugc_video.xlsx
+++ b/loaded_influencer_data/soraiadias98.ugc/soraiadias98.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,415 +506,419 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7486870551550610710</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7489478471069093142</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Unboxing ❤️ thank you @Stylevana @Stylevana Influencers #stylevana #stylevanahaul #stylevanainfluencers</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29.85074626865671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.88059701492537</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.970149253731343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7486147344782724374</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7489089382087920898</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>내 새 조명 개봉 ✨#ugc #fyp #unboxingvideo #light #contentcreator #influencers</t>
+          <t>My first April PR I’m really happy, thank you for the opportunity… video soon 🤫@Stylevana Influencers</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.37724550898204</v>
+        <v>15.51246537396122</v>
       </c>
       <c r="I3" t="n">
-        <v>10.47904191616766</v>
+        <v>11.35734072022161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8982035928143712</v>
+        <v>4.155124653739612</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2994011976047904</v>
+        <v>0.8310249307479225</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7485417973411269910</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7489087062029749526</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>My Goals for April 🌸🎀 #ugc #ugccreator #ugccontentcreator #ugccommunity #goals #april</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11.3013698630137</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.931506849315069</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.712328767123288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7488742135425027350</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>743</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>@skin1004_influencers @SKIN1004 US @mixsoon_influencer @VT COSMETICS Influencers @Beauty of Joseon US</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.671601615074024</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.998654104979811</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6729475100942126</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.345895020188425</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7488355385754078486</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>220</v>
+      </c>
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@carmexfrance you have my heart ❤️ #ugc #contentcreator #ugccreator #carmex #carmexlipbalm #carmexlover</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7488339771786300694</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>303</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>@carmexfrance you have my heart ❤️ #ugc #contentcreator #ugccreator #carmex #carmexlipbalm #carmexlover</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.920792079207921</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.6006600660066</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.32013201320132</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7488330236161969430</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>354</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>#aroundtheworld #aroundtheworldchallenge</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5.626598465473146</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.115089514066496</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5115089514066496</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7484753000972700950</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>224</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>My new Korean Skin care 💕💕 and my first video talking 😊@YesStyle @YesStyleInfluencers @anua_influencers @anua_kr @SKIN1004 US @skin1004_influencers @VT COSMETICS Influencers @VT Cosmetics US @Medicube Global @Dr. Althea Influencers @Beauty of Joseon US #ugc #skincare #koreanskincare #influencers #fyp #viral_video</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>16.51785714285714</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.73214285714286</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.785714285714286</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7483921391838907670</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>369</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>히알루론적 세럼@L’Oréal Paris #lorealparis #hyalouronicacid #ugc #ugccreator #contentcreator #fyp #influencer</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9.48509485094851</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.859078590785908</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.626016260162602</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2710027100271002</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7483506145097878807</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>564</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>🕯️#ugc #contentcreator #ugccreator #CapCut #candle #candlelover #orange</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.367231638418079</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.80225988700565</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5649717514124294</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7488035169186680087</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>마다가스카르 센텔라가 함유된 클레이 스틱 마스크로 모공을 정화시키고 오일을 조절하며 지저분하고 사용하기 쉬운 형태로 피부를 진정시킵니다. 💕</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7.978723404255319</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.092198581560284</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8865248226950355</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3546099290780142</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7483235603417500950</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>438</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>My makeup favs 💄@Diorbeauty @Maybelline New York France @Erborian France</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>17.04180064308682</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.39871382636656</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6430868167202572</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6430868167202572</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7488014042565545238</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>펜티 뷰티 💜@Fenty Beauty #viralvideos #viral_video #ugc #ugccreator #creatorsearchinsights #fentybeauty #lips</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7.30593607305936</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.621004566210045</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482428699359333654</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>537</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>버블 홍보대사가 되는 방법@Bubble Skincare #bubble #viralvideos #viral_video #ugc #ugccreator</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7.076350093109869</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.772811918063315</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.303538175046555</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5586592178770949</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482416613157883158</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>393</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -924,148 +928,140 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>#viralvideos #viral_video #ugc #ugccreator #necklace #jewellery</t>
+          <t>Best perfume ever🌸🎀@Giorgio Armani ® #contentcreator #ugc #ugccreator #myway #giorgioarmani</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.37913486005089</v>
+        <v>8.215297450424931</v>
       </c>
       <c r="I10" t="n">
-        <v>7.124681933842239</v>
+        <v>7.365439093484419</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2544529262086514</v>
+        <v>0.84985835694051</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2544529262086514</v>
+        <v>0.28328611898017</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7482116918619409686</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7486870551550610710</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7486147344782724374</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>#viralvideos #viral_video #ugc #ugccreator #necklace #jewellery</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>20.3030303030303</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.636363636363636</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482035834443549974</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>301</v>
-      </c>
-      <c r="C12" t="n">
-        <v>34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>내 새 조명 개봉 ✨#ugc #fyp #unboxingvideo #light #contentcreator #influencers</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>11.37724550898204</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.47904191616766</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8982035928143712</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2994011976047904</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7485417973411269910</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>391</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>내 PS5는 내 머리카락이 멋진 개인적인 토네이도를 받을 자격이 있기 때문에 💗@Dyson France @Dyson #viralvideos</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>12.95681063122924</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.29568106312292</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.661129568106313</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.6644518272425249</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480946167145057558</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>256</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16</v>
-      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -1074,20 +1070,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>언박싱 P9#viralvideos #viral_video #ugc #ugccreator #unboxingvideo #airpods #p9 #unboxin</t>
+          <t>#aroundtheworld #aroundtheworldchallenge</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>25.78125</v>
+        <v>5.626598465473146</v>
       </c>
       <c r="I13" t="n">
-        <v>19.53125</v>
+        <v>5.115089514066496</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.25</v>
+        <v>0.5115089514066496</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1097,21 +1093,21 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480641380981968150</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7484753000972700950</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>429</v>
+        <v>224</v>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -1120,148 +1116,148 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>My new Korean Skin care 💕💕 and my first video talking 😊@YesStyle @YesStyleInfluencers @anua_influencers @anua_kr @SKIN1004 US @skin1004_influencers @VT COSMETICS Influencers @VT Cosmetics US @Medicube Global @Dr. Althea Influencers @Beauty of Joseon US #ugc #skincare #koreanskincare #influencers #fyp #viral_video</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>16.51785714285714</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.73214285714286</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7483921391838907670</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>369</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>#viralvideos #viral_video #ugc #ugccreator #fyp #creatorsearchinsights</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>11.18881118881119</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.25641025641026</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.9324009324009324</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.2331002331002331</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480583839820139798</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>271</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>히알루론적 세럼@L’Oréal Paris #lorealparis #hyalouronicacid #ugc #ugccreator #contentcreator #fyp #influencer</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9.48509485094851</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.859078590785908</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.626016260162602</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2710027100271002</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7483506145097878807</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>564</v>
+      </c>
+      <c r="C16" t="n">
         <v>40</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>#CapCut #viralvideos #viral_video #ugccreator #ugc</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>16.60516605166052</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.76014760147601</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.845018450184502</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.107011070110701</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7480113585616620822</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>328</v>
-      </c>
-      <c r="C16" t="n">
-        <v>64</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>#CapCut #viralvideos #viral_video #ugccreator #ugc</t>
+          <t>마다가스카르 센텔라가 함유된 클레이 스틱 마스크로 모공을 정화시키고 오일을 조절하며 지저분하고 사용하기 쉬운 형태로 피부를 진정시킵니다. 💕</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>21.64634146341463</v>
+        <v>7.978723404255319</v>
       </c>
       <c r="I16" t="n">
-        <v>19.51219512195122</v>
+        <v>7.092198581560284</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.134146341463415</v>
+        <v>0.8865248226950355</v>
       </c>
       <c r="L16" t="n">
-        <v>2.74390243902439</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-12</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7480044438203469078</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7483235603417500950</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>267</v>
+        <v>438</v>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -1270,259 +1266,709 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>펜티 뷰티 💜@Fenty Beauty #viralvideos #viral_video #ugc #ugccreator #creatorsearchinsights #fentybeauty #lips</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7.30593607305936</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.621004566210045</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482428699359333654</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>537</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>버블 홍보대사가 되는 방법@Bubble Skincare #bubble #viralvideos #viral_video #ugc #ugccreator</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7.076350093109869</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.772811918063315</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.303538175046555</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5586592178770949</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482416613157883158</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>393</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>#viralvideos #viral_video #ugc #ugccreator #necklace #jewellery</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7.37913486005089</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.124681933842239</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2544529262086514</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2544529262086514</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7482116918619409686</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>330</v>
+      </c>
+      <c r="C20" t="n">
+        <v>55</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>#viralvideos #viral_video #ugc #ugccreator #necklace #jewellery</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>20.3030303030303</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7482035834443549974</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>34</v>
+      </c>
+      <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>내 PS5는 내 머리카락이 멋진 개인적인 토네이도를 받을 자격이 있기 때문에 💗@Dyson France @Dyson #viralvideos</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>12.95681063122924</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.29568106312292</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.661129568106313</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6644518272425249</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480946167145057558</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>언박싱 P9#viralvideos #viral_video #ugc #ugccreator #unboxingvideo #airpods #p9 #unboxin</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>25.78125</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19.53125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480641380981968150</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>429</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>#viralvideos #viral_video #ugc #ugccreator #fyp #creatorsearchinsights</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>11.18881118881119</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9324009324009324</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2331002331002331</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7480583839820139798</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>271</v>
+      </c>
+      <c r="C24" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>#CapCut #viralvideos #viral_video #ugccreator #ugc</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>16.60516605166052</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.76014760147601</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.845018450184502</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.107011070110701</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7480113585616620822</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>328</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>#CapCut #viralvideos #viral_video #ugccreator #ugc</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>21.64634146341463</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.51219512195122</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.134146341463415</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.74390243902439</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7480044438203469078</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>267</v>
+      </c>
+      <c r="C26" t="n">
+        <v>56</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>자외선 차단제는 자외선 손상과 조기 노화를 방지하고, 애프터썬은 피부를 진정시키고 수분을 공급하여 회복을 촉진합니다.</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>22.09737827715356</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>20.97378277153558</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.123595505617978</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>1.872659176029963</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7479383633241869590</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>544</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>35</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Ana Abiyedh Rouge는 사프란, 앰버 및 우디 머스크와 함께 바카라 루즈 540을 연상시키는 고급스럽고 통풍이 잘 되는 향을 제공합니다.</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>6.801470588235293</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>6.433823529411764</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.3676470588235294</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>0.1838235294117647</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7479380972346051862</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>422</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>41</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>오일 리플렉션은 머리카락을 믿을 수 없을 정도로 매끄럽고 빛나게 하며 고급스러운 광택으로 깊은 영양을 공급합니다.</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>10.42654028436019</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>9.715639810426541</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.7109004739336493</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7479095387496680726</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>385</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>38</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>8</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>내 UGC 데이 계획 💕#creatorsearchinsights #viralvideos #viral_video #fyp #ugcexample #ugcexample #planning</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>11.94805194805195</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>9.870129870129871</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.077922077922078</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>0.5194805194805194</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7478751553122290966</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>382</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>42</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>@anua_kr @ANUA Indonesia #viralvideos #viral_video #creatorsearchinsights #fyp #ugc #ugcexample</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>11.51832460732984</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>10.99476439790576</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5235602094240838</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.2617801047120419</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7478425674718481686</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>419</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>54</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>@SKIN1004 US @skin1004official
 @skin1004_influencers 💗
@@ -1530,1128 +1976,1028 @@
 #viral_video #creatorsearchinsights #fyp</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>13.84248210023866</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>12.88782816229117</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.9546539379474941</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7478374222696484098</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>470</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>YESSTYLE unboxing 💕💕@YesStyle @YesStyleInfluencers #CapCut #unboxingvideo #anua #centella #345 #medicube #reedleshot #beautyhacks</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>5.319148936170213</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>4.468085106382979</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.851063829787234</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.2127659574468085</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7477977618415979798</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>384</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>36</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@Tommy Hilfiger @CARMEXUK @NIVEA @apple #viralvideos #viral_video #creatorsearchinsights #fyp #ugc</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>10.15625</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>9.375</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.78125</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.5208333333333333</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7477638324493028610</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>393</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>28</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>@The Ordinary ❤️ #theordinary #viralvideos #viral_video #creatorsearchinsights #fyp #ugc #ugcexample</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>8.396946564885496</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>7.124681933842239</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.272264631043257</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.5089058524173028</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7477636618631793942</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>439</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>블랙 드레스 🖤#creatorsearchinsights #viral_video #viralvideos #fyp #ugc #ugcfashion #ugccreator #blackdress</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>4.328018223234624</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>3.416856492027335</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.9111617312072893</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7476553669148724502</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>419</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>신랑 메이크업#teamwork #ugc #UserGeneratedContent #UGCCreator #UGCContent #UGCCommunity #fyp</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>7.637231503579953</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>5.966587112171838</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.670644391408115</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7476149089701350678</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>222</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>@Vichy Laboratoires #teamwork #ugc #UserGeneratedContent #UGCCreator #UGCContent</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>12.16216216216216</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>10.81081081081081</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.351351351351351</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.4504504504504505</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7476122404805283094</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>339</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>23</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>팀워크 걸스 🎀#teamwork #teamworktreand #team #girls #work #fyp #fpy</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>9.144542772861357</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>6.784660766961652</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.359882005899705</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7475721617843260694</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>327</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>34</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>@Maybelline New York France @Maybelline NY #ugc #UserGeneratedContent #UGCCreator #UGCContent</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>11.31498470948012</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>10.39755351681957</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.9174311926605505</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.3058103975535168</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7475385788079836438</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>355</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>60</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>13</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>7</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>@YSL Beauty @SAINT LAURENT @Giorgio Armani @Vichy Laboratoires @Kylie Cosmetics #ugc</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>20.56338028169014</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>16.90140845070422</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.661971830985915</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>1.971830985915493</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7475024047089126678</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>2976</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>20</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>@Vichy Laboratoires #ugc #UserGeneratedContent #UGCCreator #UGCContent #UGCCommunity</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>0.6720430107526881</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>0.6720430107526881</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7474713363784928534</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>350</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>18</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>1</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>@Vichy Laboratoires #ugc #UserGeneratedContent #UGCCreator #UGCContent #UGCCommunity</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>5.428571428571429</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>5.142857142857142</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7474623508283182358</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>383</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>19</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>3</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>언박싱 🧖🏻‍♀️ @anua_kr #ugc #UserGeneratedContent #UGCCreator #UGCContent #UGCCommunity</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>5.744125326370757</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>4.960835509138381</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7832898172323759</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7474197676767350039</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>942</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>42</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>18</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>#teamwork #fyp #fy #fypp #garotasapoiamgarotas
 #garotasapoiamgarotas #girlssupportgirls 💝🎀✨️</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>6.369426751592357</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>4.45859872611465</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.910828025477707</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.3184713375796179</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7474016295999081750</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>884</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>20</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>@Rituals 🍃🍀
 #UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp #contentcreator</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>2.375565610859729</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>2.262443438914027</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1131221719457014</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>0.1131221719457014</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7473984322408582402</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>982</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>27</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>4</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>@Rituals 🍃🍀
 #UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp #contentcreator</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>3.156822810590632</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>2.74949083503055</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.4073319755600814</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>0.2036659877800407</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7473586683296959766</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>618</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>27</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>5.016181229773463</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>4.368932038834951</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.6472491909385114</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>0.3236245954692557</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7473525625811242263</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>376</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>27</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>8.24468085106383</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>7.180851063829788</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.063829787234043</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>0.5319148936170213</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7473219462137662742</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>308</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>27</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>10.06493506493507</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>8.766233766233766</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.298701298701299</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>0.6493506493506493</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/video/7472832402721918230</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>313</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>27</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>4</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>9.904153354632587</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>8.626198083067091</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.277955271565495</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>0.6389776357827476</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@soraiadias98.ugc/photo/7472801761749781782</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>354</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>27</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>8.757062146892656</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>7.627118644067797</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.129943502824859</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.5649717514124294</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7472755201393528066</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>350</v>
-      </c>
-      <c r="C43" t="n">
-        <v>27</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8.857142857142856</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.714285714285714</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@soraiadias98.ugc/video/7469873016739073302</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1107</v>
-      </c>
-      <c r="C44" t="n">
-        <v>27</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>✨ 새로운 여정을 시작합시다.#UGC #usergeneratedcontent #ugccreator #ugccontent #ugccommunity #foryou #fyp</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2.800361336946703</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3613369467028004</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1806684733514002</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
